--- a/data/air_info/上海-东京.xlsx
+++ b/data/air_info/上海-东京.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E1B15F-3807-462D-8EC0-4D08ED0F0438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2045F2C8-153F-49E7-9B64-3A5D1A13224C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,36 +33,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
-    <t>行程时间：2 小时 50 分钟</t>
-  </si>
-  <si>
     <t>春航经济舱Airbus A3209C 6131</t>
   </si>
   <si>
-    <t>行程时间：3 小时 5 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A321MU 727</t>
   </si>
   <si>
     <t>吉祥航空经济舱Boeing 787HO 1379</t>
   </si>
   <si>
-    <t>行程时间：2 小时 55 分钟</t>
-  </si>
-  <si>
     <t>全日空经济舱Boeing 767NH 972</t>
   </si>
   <si>
-    <t>行程时间：2 小时 45 分钟</t>
-  </si>
-  <si>
     <t>上航经济舱Boeing 787FM 815</t>
   </si>
   <si>
-    <t>行程时间：3 小时 20 分钟</t>
-  </si>
-  <si>
     <t>南航经济舱Airbus A321CZ 8309</t>
   </si>
   <si>
@@ -72,16 +57,10 @@
     <t>国航豪华经济舱Airbus A350CA 929</t>
   </si>
   <si>
-    <t>行程时间：3 小时 15 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A350MU 521</t>
   </si>
   <si>
     <t>全日空经济舱Boeing 787NH 920</t>
-  </si>
-  <si>
-    <t>行程时间：3 小时 10 分钟</t>
   </si>
   <si>
     <t>全日空经济舱Boeing 787-10NH 970</t>
@@ -134,6 +113,27 @@
   <si>
     <t>机票价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 50 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 5 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 20 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 10 分钟</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -505,25 +505,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -531,23 +531,23 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>0.4201388888888889</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(800,1300)</f>
-        <v>1088</v>
+        <f ca="1">RANDBETWEEN(700,1300)</f>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -555,23 +555,23 @@
         <v>0.3298611111111111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>0.5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G17" ca="1" si="0">RANDBETWEEN(800,1300)</f>
-        <v>1213</v>
+        <f t="shared" ref="G3:G17" ca="1" si="0">RANDBETWEEN(700,1300)</f>
+        <v>1276</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -579,23 +579,23 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>0.50694444444444442</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>949</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,23 +603,23 @@
         <v>0.35069444444444442</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>0.51388888888888884</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1241</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -627,23 +627,23 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>0.52083333333333337</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1009</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -651,23 +651,23 @@
         <v>0.375</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>0.55555555555555558</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>831</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -675,23 +675,23 @@
         <v>0.37847222222222221</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>0.53472222222222221</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1213</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,23 +699,23 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>0.57638888888888884</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>868</v>
+        <v>764</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -723,23 +723,23 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>0.66319444444444442</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>972</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -747,23 +747,23 @@
         <v>0.54513888888888884</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>0.70486111111111116</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>939</v>
+        <v>910</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -771,23 +771,23 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>0.73958333333333337</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1192</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,23 +795,23 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1044</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,23 +819,23 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>0.8125</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1086</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -843,23 +843,23 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>0.86111111111111116</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1105</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -867,23 +867,23 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>0.87152777777777779</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1282</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,23 +891,23 @@
         <v>0.71875</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>0.88888888888888884</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1060</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/data/air_info/上海-东京.xlsx
+++ b/data/air_info/上海-东京.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2045F2C8-153F-49E7-9B64-3A5D1A13224C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F7BD13-A18E-4F16-A44C-4DF78E5E75A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,29 +111,28 @@
     <t>航空信息</t>
   </si>
   <si>
+    <t>2 小时 50 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 5 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 20 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>3 小时 10 分钟</t>
+  </si>
+  <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 小时 50 分钟</t>
-  </si>
-  <si>
-    <t>3 小时 5 分钟</t>
-  </si>
-  <si>
-    <t>2 小时 55 分钟</t>
-  </si>
-  <si>
-    <t>2 小时 45 分钟</t>
-  </si>
-  <si>
-    <t>3 小时 20 分钟</t>
-  </si>
-  <si>
-    <t>3 小时 15 分钟</t>
-  </si>
-  <si>
-    <t>3 小时 10 分钟</t>
   </si>
 </sst>
 </file>
@@ -486,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -498,8 +497,7 @@
     <col min="3" max="3" width="39" style="1" customWidth="1"/>
     <col min="4" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -523,7 +521,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -534,7 +532,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2">
         <v>0.4201388888888889</v>
@@ -546,8 +544,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(700,1300)</f>
-        <v>845</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -558,7 +555,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>0.5</v>
@@ -570,8 +567,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G17" ca="1" si="0">RANDBETWEEN(700,1300)</f>
-        <v>1276</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -582,7 +578,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>0.50694444444444442</v>
@@ -594,8 +590,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>813</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -606,7 +601,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>0.51388888888888884</v>
@@ -618,8 +613,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>766</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -630,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>0.52083333333333337</v>
@@ -642,8 +636,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1248</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -654,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>0.55555555555555558</v>
@@ -666,8 +659,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1075</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -678,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>0.53472222222222221</v>
@@ -690,8 +682,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1062</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -702,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>0.57638888888888884</v>
@@ -714,8 +705,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>764</v>
+        <v>857</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -726,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>0.66319444444444442</v>
@@ -738,8 +728,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1076</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -750,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
         <v>0.70486111111111116</v>
@@ -762,8 +751,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>910</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -774,7 +762,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>0.73958333333333337</v>
@@ -786,8 +774,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>820</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -798,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>0.79166666666666663</v>
@@ -810,8 +797,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1241</v>
+        <v>923</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -822,7 +808,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>0.8125</v>
@@ -834,8 +820,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1166</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -846,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2">
         <v>0.86111111111111116</v>
@@ -858,8 +843,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>851</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,7 +854,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>0.87152777777777779</v>
@@ -882,8 +866,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1069</v>
+        <v>954</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -894,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>0.88888888888888884</v>
@@ -906,8 +889,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>980</v>
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
